--- a/Code/Results/Cases/Case_1_251/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_1_251/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>0.9895686463690202</v>
+        <v>1.024220495633489</v>
       </c>
       <c r="D2">
-        <v>1.038027882379188</v>
+        <v>1.047369449335628</v>
       </c>
       <c r="E2">
-        <v>1.010284539869052</v>
+        <v>1.036075524516319</v>
       </c>
       <c r="F2">
-        <v>1.028160601671485</v>
+        <v>1.050354430087737</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.050451499546419</v>
+        <v>1.036126349546883</v>
       </c>
       <c r="J2">
-        <v>1.012065897695752</v>
+        <v>1.029396328622976</v>
       </c>
       <c r="K2">
-        <v>1.048981679980076</v>
+        <v>1.050132278945543</v>
       </c>
       <c r="L2">
-        <v>1.021602430289041</v>
+        <v>1.038870303632534</v>
       </c>
       <c r="M2">
-        <v>1.039241074728519</v>
+        <v>1.053108939929659</v>
       </c>
       <c r="N2">
-        <v>1.007866772364788</v>
+        <v>1.013815668085104</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>0.9938012865007125</v>
+        <v>1.025136526813097</v>
       </c>
       <c r="D3">
-        <v>1.040860682039159</v>
+        <v>1.047974574763446</v>
       </c>
       <c r="E3">
-        <v>1.013696963762285</v>
+        <v>1.036862142263826</v>
       </c>
       <c r="F3">
-        <v>1.031727075421616</v>
+        <v>1.051162928113707</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.05118595612487</v>
+        <v>1.036215098220011</v>
       </c>
       <c r="J3">
-        <v>1.014462373027144</v>
+        <v>1.029951346433641</v>
       </c>
       <c r="K3">
-        <v>1.05099613215291</v>
+        <v>1.050549770988679</v>
       </c>
       <c r="L3">
-        <v>1.024157538418804</v>
+        <v>1.0394665088316</v>
       </c>
       <c r="M3">
-        <v>1.041969479401105</v>
+        <v>1.053729877734805</v>
       </c>
       <c r="N3">
-        <v>1.008686754845284</v>
+        <v>1.01400271746571</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>0.996489715927328</v>
+        <v>1.02573012897742</v>
       </c>
       <c r="D4">
-        <v>1.042658488202419</v>
+        <v>1.048365929656911</v>
       </c>
       <c r="E4">
-        <v>1.015869874758873</v>
+        <v>1.037372118745484</v>
       </c>
       <c r="F4">
-        <v>1.033995415141212</v>
+        <v>1.051686689115026</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.051640566352862</v>
+        <v>1.036271080155638</v>
       </c>
       <c r="J4">
-        <v>1.015983643366897</v>
+        <v>1.030310739536851</v>
       </c>
       <c r="K4">
-        <v>1.052267944163601</v>
+        <v>1.050819019231176</v>
       </c>
       <c r="L4">
-        <v>1.025780464424298</v>
+        <v>1.039852618440906</v>
       </c>
       <c r="M4">
-        <v>1.043700153616442</v>
+        <v>1.054131620500899</v>
       </c>
       <c r="N4">
-        <v>1.009206841248965</v>
+        <v>1.014123750893179</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>0.9976082852975824</v>
+        <v>1.025979886019798</v>
       </c>
       <c r="D5">
-        <v>1.043406042707088</v>
+        <v>1.048530404816759</v>
       </c>
       <c r="E5">
-        <v>1.016775209917053</v>
+        <v>1.037586746263034</v>
       </c>
       <c r="F5">
-        <v>1.034939853340959</v>
+        <v>1.051907021910766</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.051826807507549</v>
+        <v>1.036294268379665</v>
       </c>
       <c r="J5">
-        <v>1.016616351273432</v>
+        <v>1.030461889375661</v>
       </c>
       <c r="K5">
-        <v>1.052795175375676</v>
+        <v>1.050931994752889</v>
       </c>
       <c r="L5">
-        <v>1.026455670157895</v>
+        <v>1.040015015342837</v>
       </c>
       <c r="M5">
-        <v>1.044419608134023</v>
+        <v>1.054300500514517</v>
       </c>
       <c r="N5">
-        <v>1.009423040731657</v>
+        <v>1.014174632887109</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>0.9977954267201826</v>
+        <v>1.026021833409502</v>
       </c>
       <c r="D6">
-        <v>1.043531082242445</v>
+        <v>1.048558017899662</v>
       </c>
       <c r="E6">
-        <v>1.016926748710341</v>
+        <v>1.037622796804117</v>
       </c>
       <c r="F6">
-        <v>1.035097898253571</v>
+        <v>1.051944025121751</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.051857793986223</v>
+        <v>1.036298141437746</v>
       </c>
       <c r="J6">
-        <v>1.016722190791544</v>
+        <v>1.030487271641401</v>
       </c>
       <c r="K6">
-        <v>1.052883267685632</v>
+        <v>1.050950951098775</v>
       </c>
       <c r="L6">
-        <v>1.026568631250708</v>
+        <v>1.040042286938609</v>
       </c>
       <c r="M6">
-        <v>1.044539937348084</v>
+        <v>1.054328855419495</v>
       </c>
       <c r="N6">
-        <v>1.00945920013487</v>
+        <v>1.014183176157728</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>0.9965047075348489</v>
+        <v>1.025733465432685</v>
       </c>
       <c r="D7">
-        <v>1.042668509212132</v>
+        <v>1.048368127582948</v>
       </c>
       <c r="E7">
-        <v>1.015882003604925</v>
+        <v>1.037374985693942</v>
       </c>
       <c r="F7">
-        <v>1.034008070469236</v>
+        <v>1.051689632650694</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.051643073998332</v>
+        <v>1.036271391360648</v>
       </c>
       <c r="J7">
-        <v>1.015992124227064</v>
+        <v>1.030312758970221</v>
       </c>
       <c r="K7">
-        <v>1.05227501809411</v>
+        <v>1.050820529668225</v>
       </c>
       <c r="L7">
-        <v>1.025789514079734</v>
+        <v>1.039854788097705</v>
       </c>
       <c r="M7">
-        <v>1.043709798644163</v>
+        <v>1.054133877135802</v>
       </c>
       <c r="N7">
-        <v>1.009209739635298</v>
+        <v>1.014124430783243</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>0.9910097713238023</v>
+        <v>1.02452989200729</v>
       </c>
       <c r="D8">
-        <v>1.038992643464564</v>
+        <v>1.047573994787314</v>
       </c>
       <c r="E8">
-        <v>1.011445223583219</v>
+        <v>1.03634116125265</v>
       </c>
       <c r="F8">
-        <v>1.029374229264818</v>
+        <v>1.050627538506251</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.050704023216872</v>
+        <v>1.036156641171446</v>
       </c>
       <c r="J8">
-        <v>1.012882014513987</v>
+        <v>1.029583845081462</v>
       </c>
       <c r="K8">
-        <v>1.049669120507695</v>
+        <v>1.050273557056885</v>
       </c>
       <c r="L8">
-        <v>1.022472362119714</v>
+        <v>1.039071725853402</v>
       </c>
       <c r="M8">
-        <v>1.040170482047006</v>
+        <v>1.053318797141323</v>
       </c>
       <c r="N8">
-        <v>1.00814610482355</v>
+        <v>1.013878882033419</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>0.9809216699519556</v>
+        <v>1.02241575230068</v>
       </c>
       <c r="D9">
-        <v>1.032236965097595</v>
+        <v>1.046173181001817</v>
       </c>
       <c r="E9">
-        <v>1.003345561501096</v>
+        <v>1.034527029706569</v>
       </c>
       <c r="F9">
-        <v>1.020894634757709</v>
+        <v>1.048760745834855</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.048888310930708</v>
+        <v>1.035943409309401</v>
       </c>
       <c r="J9">
-        <v>1.007166600233549</v>
+        <v>1.028301443243498</v>
       </c>
       <c r="K9">
-        <v>1.044827809048166</v>
+        <v>1.049302925817407</v>
       </c>
       <c r="L9">
-        <v>1.016384591509025</v>
+        <v>1.037694420001558</v>
       </c>
       <c r="M9">
-        <v>1.033657569066175</v>
+        <v>1.051882250713129</v>
       </c>
       <c r="N9">
-        <v>1.006188224616513</v>
+        <v>1.013446213512272</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9738948424978483</v>
+        <v>1.021010913774744</v>
       </c>
       <c r="D10">
-        <v>1.027533233092615</v>
+        <v>1.04523845765275</v>
       </c>
       <c r="E10">
-        <v>0.9977384980259359</v>
+        <v>1.033322821344802</v>
       </c>
       <c r="F10">
-        <v>1.015012141334726</v>
+        <v>1.047519535467408</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.047565196622746</v>
+        <v>1.035793887617614</v>
       </c>
       <c r="J10">
-        <v>1.003183895955884</v>
+        <v>1.027447946322044</v>
       </c>
       <c r="K10">
-        <v>1.041422546102381</v>
+        <v>1.048651369817931</v>
       </c>
       <c r="L10">
-        <v>1.01214870499454</v>
+        <v>1.036778012512206</v>
       </c>
       <c r="M10">
-        <v>1.029115535719615</v>
+        <v>1.050924474759034</v>
       </c>
       <c r="N10">
-        <v>1.004821982697541</v>
+        <v>1.013157807985004</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.970773704755877</v>
+        <v>1.020403707268813</v>
       </c>
       <c r="D11">
-        <v>1.02544598924279</v>
+        <v>1.04483353806125</v>
       </c>
       <c r="E11">
-        <v>0.9952571052519181</v>
+        <v>1.032802643999915</v>
       </c>
       <c r="F11">
-        <v>1.012406198370355</v>
+        <v>1.046982890513243</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.046964497566892</v>
+        <v>1.035727405590162</v>
       </c>
       <c r="J11">
-        <v>1.001414984679459</v>
+        <v>1.027078727930038</v>
       </c>
       <c r="K11">
-        <v>1.039903473196771</v>
+        <v>1.04836820019257</v>
       </c>
       <c r="L11">
-        <v>1.010269023348707</v>
+        <v>1.036381641298862</v>
       </c>
       <c r="M11">
-        <v>1.027097884014799</v>
+        <v>1.050509750555352</v>
       </c>
       <c r="N11">
-        <v>1.004214775518896</v>
+        <v>1.013032940381207</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9696019494133022</v>
+        <v>1.020178329932715</v>
       </c>
       <c r="D12">
-        <v>1.024662830307973</v>
+        <v>1.044683108297633</v>
       </c>
       <c r="E12">
-        <v>0.9943269762319743</v>
+        <v>1.032609616957764</v>
       </c>
       <c r="F12">
-        <v>1.011429008822365</v>
+        <v>1.046783680060887</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.046737100289679</v>
+        <v>1.035702450846722</v>
       </c>
       <c r="J12">
-        <v>1.000750949785563</v>
+        <v>1.026941637710541</v>
       </c>
       <c r="K12">
-        <v>1.039332306567829</v>
+        <v>1.048262863598462</v>
       </c>
       <c r="L12">
-        <v>1.009563675505616</v>
+        <v>1.036234478765264</v>
       </c>
       <c r="M12">
-        <v>1.026340474515592</v>
+        <v>1.050355705149884</v>
       </c>
       <c r="N12">
-        <v>1.003986781228713</v>
+        <v>1.012986561532699</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.969853867873573</v>
+        <v>1.020226666595401</v>
       </c>
       <c r="D13">
-        <v>1.024831181028115</v>
+        <v>1.044715377070826</v>
       </c>
       <c r="E13">
-        <v>0.9945268800604684</v>
+        <v>1.032651013288062</v>
       </c>
       <c r="F13">
-        <v>1.011639043401556</v>
+        <v>1.04682640576258</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.046786072668238</v>
+        <v>1.035707815493172</v>
       </c>
       <c r="J13">
-        <v>1.000893708787048</v>
+        <v>1.026971041569259</v>
       </c>
       <c r="K13">
-        <v>1.039455140340703</v>
+        <v>1.048285465632694</v>
       </c>
       <c r="L13">
-        <v>1.009715303809758</v>
+        <v>1.036266042556763</v>
       </c>
       <c r="M13">
-        <v>1.026503307046324</v>
+        <v>1.050388748310245</v>
       </c>
       <c r="N13">
-        <v>1.004035799418867</v>
+        <v>1.012996509830976</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.970677104399722</v>
+        <v>1.020385074110262</v>
       </c>
       <c r="D14">
-        <v>1.025381415154452</v>
+        <v>1.044821103979301</v>
       </c>
       <c r="E14">
-        <v>0.9951803948009103</v>
+        <v>1.032786684438579</v>
       </c>
       <c r="F14">
-        <v>1.012325614155228</v>
+        <v>1.046966421186184</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.046945788543955</v>
+        <v>1.035725348130016</v>
       </c>
       <c r="J14">
-        <v>1.001360239684795</v>
+        <v>1.027067394902985</v>
       </c>
       <c r="K14">
-        <v>1.039856402767178</v>
+        <v>1.048359496184647</v>
       </c>
       <c r="L14">
-        <v>1.010210866815413</v>
+        <v>1.036369475415305</v>
       </c>
       <c r="M14">
-        <v>1.027035440648046</v>
+        <v>1.05049701707065</v>
       </c>
       <c r="N14">
-        <v>1.004195980056714</v>
+        <v>1.013029106636707</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9711826613343204</v>
+        <v>1.020482696268579</v>
       </c>
       <c r="D15">
-        <v>1.025719381998205</v>
+        <v>1.044886242622504</v>
       </c>
       <c r="E15">
-        <v>0.9955819177213047</v>
+        <v>1.03287030113963</v>
       </c>
       <c r="F15">
-        <v>1.01274739828553</v>
+        <v>1.047052705720862</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.04704362582876</v>
+        <v>1.035736116089493</v>
       </c>
       <c r="J15">
-        <v>1.001646749740171</v>
+        <v>1.027126768552297</v>
       </c>
       <c r="K15">
-        <v>1.040102710677256</v>
+        <v>1.048405088390944</v>
       </c>
       <c r="L15">
-        <v>1.010515242377469</v>
+        <v>1.036433212783617</v>
       </c>
       <c r="M15">
-        <v>1.027362240744551</v>
+        <v>1.050563725295886</v>
       </c>
       <c r="N15">
-        <v>1.004294344682239</v>
+        <v>1.013049190954548</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.9741002754131991</v>
+        <v>1.021051235308279</v>
       </c>
       <c r="D16">
-        <v>1.027670669391225</v>
+        <v>1.045265327263635</v>
       </c>
       <c r="E16">
-        <v>0.9979020198483928</v>
+        <v>1.033357370347991</v>
       </c>
       <c r="F16">
-        <v>1.015183817510267</v>
+        <v>1.047555168013175</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.047604469564796</v>
+        <v>1.035798263256543</v>
       </c>
       <c r="J16">
-        <v>1.003300331355363</v>
+        <v>1.027472457631398</v>
       </c>
       <c r="K16">
-        <v>1.04152240450192</v>
+        <v>1.048670141053577</v>
       </c>
       <c r="L16">
-        <v>1.012272468106719</v>
+        <v>1.036804327737682</v>
       </c>
       <c r="M16">
-        <v>1.029248341434358</v>
+        <v>1.050951998770322</v>
       </c>
       <c r="N16">
-        <v>1.00486194327087</v>
+        <v>1.013166095367916</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.9759089715493556</v>
+        <v>1.02140815963745</v>
       </c>
       <c r="D17">
-        <v>1.028880950287894</v>
+        <v>1.045503070869407</v>
       </c>
       <c r="E17">
-        <v>0.999342766515627</v>
+        <v>1.033663232654636</v>
       </c>
       <c r="F17">
-        <v>1.016696109283713</v>
+        <v>1.047870566951803</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.047948767407009</v>
+        <v>1.03583678173107</v>
       </c>
       <c r="J17">
-        <v>1.00432548242859</v>
+        <v>1.027689394140847</v>
       </c>
       <c r="K17">
-        <v>1.042400857312689</v>
+        <v>1.048836123926489</v>
       </c>
       <c r="L17">
-        <v>1.013362329237208</v>
+        <v>1.03703723692981</v>
       </c>
       <c r="M17">
-        <v>1.030417594026488</v>
+        <v>1.051195553468996</v>
       </c>
       <c r="N17">
-        <v>1.005213730463261</v>
+        <v>1.01323943045645</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.9769564267627255</v>
+        <v>1.021616453401589</v>
       </c>
       <c r="D18">
-        <v>1.02958203397167</v>
+        <v>1.045641725351761</v>
       </c>
       <c r="E18">
-        <v>1.000177995638836</v>
+        <v>1.033841757724369</v>
       </c>
       <c r="F18">
-        <v>1.017572559485516</v>
+        <v>1.048054611572008</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.048146916831172</v>
+        <v>1.035859081147314</v>
       </c>
       <c r="J18">
-        <v>1.00491917660169</v>
+        <v>1.027815963365993</v>
       </c>
       <c r="K18">
-        <v>1.042908958922528</v>
+        <v>1.04893283831721</v>
       </c>
       <c r="L18">
-        <v>1.013993657353388</v>
+        <v>1.037173131211898</v>
       </c>
       <c r="M18">
-        <v>1.031094708256813</v>
+        <v>1.051337614599542</v>
       </c>
       <c r="N18">
-        <v>1.005417422714092</v>
+        <v>1.01328220688299</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.9773123239104992</v>
+        <v>1.021687494106787</v>
       </c>
       <c r="D19">
-        <v>1.029820270445594</v>
+        <v>1.04568899993953</v>
       </c>
       <c r="E19">
-        <v>1.000461927881525</v>
+        <v>1.033902650589191</v>
       </c>
       <c r="F19">
-        <v>1.017870460637471</v>
+        <v>1.048117379156531</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.048214030009479</v>
+        <v>1.035866656193563</v>
       </c>
       <c r="J19">
-        <v>1.005120897821674</v>
+        <v>1.027859125904455</v>
       </c>
       <c r="K19">
-        <v>1.043081488058382</v>
+        <v>1.048965798308056</v>
       </c>
       <c r="L19">
-        <v>1.014208191964369</v>
+        <v>1.037219474781327</v>
       </c>
       <c r="M19">
-        <v>1.03132476632095</v>
+        <v>1.051386053685485</v>
       </c>
       <c r="N19">
-        <v>1.005486625271693</v>
+        <v>1.013296792747466</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.97571569855119</v>
+        <v>1.021369854078048</v>
       </c>
       <c r="D20">
-        <v>1.028751602490513</v>
+        <v>1.045477565008388</v>
       </c>
       <c r="E20">
-        <v>0.9991887218280117</v>
+        <v>1.03363040402018</v>
       </c>
       <c r="F20">
-        <v>1.016534441252672</v>
+        <v>1.047836719572918</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.047912104740881</v>
+        <v>1.035832666409686</v>
       </c>
       <c r="J20">
-        <v>1.004215936178894</v>
+        <v>1.027666115399106</v>
       </c>
       <c r="K20">
-        <v>1.042307052404328</v>
+        <v>1.048818325929452</v>
       </c>
       <c r="L20">
-        <v>1.013245851600513</v>
+        <v>1.037012243593368</v>
       </c>
       <c r="M20">
-        <v>1.030292652396728</v>
+        <v>1.051169422363225</v>
       </c>
       <c r="N20">
-        <v>1.005176142837223</v>
+        <v>1.01323156215671</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9704350300901086</v>
+        <v>1.020338422447389</v>
       </c>
       <c r="D21">
-        <v>1.025219604298221</v>
+        <v>1.044789970701518</v>
       </c>
       <c r="E21">
-        <v>0.9949881869538532</v>
+        <v>1.032746727407613</v>
       </c>
       <c r="F21">
-        <v>1.012123694158479</v>
+        <v>1.046925186711156</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.046898874906187</v>
+        <v>1.035720192386372</v>
       </c>
       <c r="J21">
-        <v>1.001223053350568</v>
+        <v>1.027039019749868</v>
       </c>
       <c r="K21">
-        <v>1.039738433704271</v>
+        <v>1.048337700291527</v>
       </c>
       <c r="L21">
-        <v>1.010065135852645</v>
+        <v>1.036339015145209</v>
       </c>
       <c r="M21">
-        <v>1.026878963018633</v>
+        <v>1.050465134560106</v>
       </c>
       <c r="N21">
-        <v>1.004148879369517</v>
+        <v>1.013019507616147</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.96704262654603</v>
+        <v>1.019690882629772</v>
       </c>
       <c r="D22">
-        <v>1.022953251361426</v>
+        <v>1.044357511624496</v>
       </c>
       <c r="E22">
-        <v>0.9922981632032536</v>
+        <v>1.032192224912438</v>
       </c>
       <c r="F22">
-        <v>1.009296889129452</v>
+        <v>1.04635278467868</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.046237054535846</v>
+        <v>1.035647969535412</v>
       </c>
       <c r="J22">
-        <v>0.9993007394472538</v>
+        <v>1.026645052415599</v>
       </c>
       <c r="K22">
-        <v>1.038083313241974</v>
+        <v>1.048034617163797</v>
       </c>
       <c r="L22">
-        <v>1.008023754731726</v>
+        <v>1.035916120245906</v>
       </c>
       <c r="M22">
-        <v>1.024686395555163</v>
+        <v>1.050022331163784</v>
       </c>
       <c r="N22">
-        <v>1.003488763536389</v>
+        <v>1.012886195425268</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9688480744954693</v>
+        <v>1.020034064113473</v>
       </c>
       <c r="D23">
-        <v>1.024159111305873</v>
+        <v>1.044586779027196</v>
       </c>
       <c r="E23">
-        <v>0.9937289756478045</v>
+        <v>1.0324860723151</v>
       </c>
       <c r="F23">
-        <v>1.010800649939773</v>
+        <v>1.046656157370258</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.046590279205258</v>
+        <v>1.035686398723901</v>
       </c>
       <c r="J23">
-        <v>1.000323750690025</v>
+        <v>1.026853871944136</v>
       </c>
       <c r="K23">
-        <v>1.038964604133831</v>
+        <v>1.048195371506946</v>
       </c>
       <c r="L23">
-        <v>1.009109976287777</v>
+        <v>1.036140267351073</v>
       </c>
       <c r="M23">
-        <v>1.025853210274066</v>
+        <v>1.050257068057711</v>
       </c>
       <c r="N23">
-        <v>1.003840089332638</v>
+        <v>1.012956865175277</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.9758030535131773</v>
+        <v>1.021387162384589</v>
       </c>
       <c r="D24">
-        <v>1.028810064169145</v>
+        <v>1.045489090062936</v>
       </c>
       <c r="E24">
-        <v>0.9992583438292745</v>
+        <v>1.033645237494079</v>
       </c>
       <c r="F24">
-        <v>1.016607509490529</v>
+        <v>1.047852013506488</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.04792867927708</v>
+        <v>1.03583452646471</v>
       </c>
       <c r="J24">
-        <v>1.00426544855293</v>
+        <v>1.027676633956076</v>
       </c>
       <c r="K24">
-        <v>1.04234945203116</v>
+        <v>1.048826368389273</v>
       </c>
       <c r="L24">
-        <v>1.013298496311307</v>
+        <v>1.037023536875769</v>
       </c>
       <c r="M24">
-        <v>1.030349123233513</v>
+        <v>1.051181229885957</v>
       </c>
       <c r="N24">
-        <v>1.005193131693164</v>
+        <v>1.01323511749868</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>0.9835805886421033</v>
+        <v>1.022961505035907</v>
       </c>
       <c r="D25">
-        <v>1.034017730176113</v>
+        <v>1.046535483639906</v>
       </c>
       <c r="E25">
-        <v>1.005474670749858</v>
+        <v>1.034995114994272</v>
       </c>
       <c r="F25">
-        <v>1.023125856406885</v>
+        <v>1.049242780612423</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.049377230504727</v>
+        <v>1.035999836802701</v>
       </c>
       <c r="J25">
-        <v>1.008673454341646</v>
+        <v>1.028632726424805</v>
       </c>
       <c r="K25">
-        <v>1.046109957287684</v>
+        <v>1.049554652204297</v>
       </c>
       <c r="L25">
-        <v>1.017988589848184</v>
+        <v>1.038050175952985</v>
       </c>
       <c r="M25">
-        <v>1.035375475217233</v>
+        <v>1.052253653819785</v>
       </c>
       <c r="N25">
-        <v>1.006704766569702</v>
+        <v>1.013558063586324</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_251/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_1_251/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.024220495633489</v>
+        <v>0.9895686463690203</v>
       </c>
       <c r="D2">
-        <v>1.047369449335628</v>
+        <v>1.038027882379189</v>
       </c>
       <c r="E2">
-        <v>1.036075524516319</v>
+        <v>1.010284539869053</v>
       </c>
       <c r="F2">
-        <v>1.050354430087737</v>
+        <v>1.028160601671486</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.036126349546883</v>
+        <v>1.05045149954642</v>
       </c>
       <c r="J2">
-        <v>1.029396328622976</v>
+        <v>1.012065897695752</v>
       </c>
       <c r="K2">
-        <v>1.050132278945543</v>
+        <v>1.048981679980076</v>
       </c>
       <c r="L2">
-        <v>1.038870303632534</v>
+        <v>1.021602430289041</v>
       </c>
       <c r="M2">
-        <v>1.053108939929659</v>
+        <v>1.03924107472852</v>
       </c>
       <c r="N2">
-        <v>1.013815668085104</v>
+        <v>1.007866772364788</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.025136526813097</v>
+        <v>0.9938012865007122</v>
       </c>
       <c r="D3">
-        <v>1.047974574763446</v>
+        <v>1.040860682039159</v>
       </c>
       <c r="E3">
-        <v>1.036862142263826</v>
+        <v>1.013696963762284</v>
       </c>
       <c r="F3">
-        <v>1.051162928113707</v>
+        <v>1.031727075421616</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.036215098220011</v>
+        <v>1.05118595612487</v>
       </c>
       <c r="J3">
-        <v>1.029951346433641</v>
+        <v>1.014462373027143</v>
       </c>
       <c r="K3">
-        <v>1.050549770988679</v>
+        <v>1.05099613215291</v>
       </c>
       <c r="L3">
-        <v>1.0394665088316</v>
+        <v>1.024157538418803</v>
       </c>
       <c r="M3">
-        <v>1.053729877734805</v>
+        <v>1.041969479401104</v>
       </c>
       <c r="N3">
-        <v>1.01400271746571</v>
+        <v>1.008686754845284</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.02573012897742</v>
+        <v>0.9964897159273278</v>
       </c>
       <c r="D4">
-        <v>1.048365929656911</v>
+        <v>1.042658488202419</v>
       </c>
       <c r="E4">
-        <v>1.037372118745484</v>
+        <v>1.015869874758873</v>
       </c>
       <c r="F4">
-        <v>1.051686689115026</v>
+        <v>1.033995415141211</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.036271080155638</v>
+        <v>1.051640566352862</v>
       </c>
       <c r="J4">
-        <v>1.030310739536851</v>
+        <v>1.015983643366897</v>
       </c>
       <c r="K4">
-        <v>1.050819019231176</v>
+        <v>1.0522679441636</v>
       </c>
       <c r="L4">
-        <v>1.039852618440906</v>
+        <v>1.025780464424298</v>
       </c>
       <c r="M4">
-        <v>1.054131620500899</v>
+        <v>1.043700153616442</v>
       </c>
       <c r="N4">
-        <v>1.014123750893179</v>
+        <v>1.009206841248965</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.025979886019798</v>
+        <v>0.9976082852975828</v>
       </c>
       <c r="D5">
-        <v>1.048530404816759</v>
+        <v>1.043406042707088</v>
       </c>
       <c r="E5">
-        <v>1.037586746263034</v>
+        <v>1.016775209917054</v>
       </c>
       <c r="F5">
-        <v>1.051907021910766</v>
+        <v>1.03493985334096</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.036294268379665</v>
+        <v>1.051826807507549</v>
       </c>
       <c r="J5">
-        <v>1.030461889375661</v>
+        <v>1.016616351273433</v>
       </c>
       <c r="K5">
-        <v>1.050931994752889</v>
+        <v>1.052795175375675</v>
       </c>
       <c r="L5">
-        <v>1.040015015342837</v>
+        <v>1.026455670157896</v>
       </c>
       <c r="M5">
-        <v>1.054300500514517</v>
+        <v>1.044419608134023</v>
       </c>
       <c r="N5">
-        <v>1.014174632887109</v>
+        <v>1.009423040731657</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.026021833409502</v>
+        <v>0.9977954267201832</v>
       </c>
       <c r="D6">
-        <v>1.048558017899662</v>
+        <v>1.043531082242445</v>
       </c>
       <c r="E6">
-        <v>1.037622796804117</v>
+        <v>1.016926748710342</v>
       </c>
       <c r="F6">
-        <v>1.051944025121751</v>
+        <v>1.035097898253571</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.036298141437746</v>
+        <v>1.051857793986223</v>
       </c>
       <c r="J6">
-        <v>1.030487271641401</v>
+        <v>1.016722190791545</v>
       </c>
       <c r="K6">
-        <v>1.050950951098775</v>
+        <v>1.052883267685632</v>
       </c>
       <c r="L6">
-        <v>1.040042286938609</v>
+        <v>1.026568631250709</v>
       </c>
       <c r="M6">
-        <v>1.054328855419495</v>
+        <v>1.044539937348085</v>
       </c>
       <c r="N6">
-        <v>1.014183176157728</v>
+        <v>1.00945920013487</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.025733465432685</v>
+        <v>0.9965047075348489</v>
       </c>
       <c r="D7">
-        <v>1.048368127582948</v>
+        <v>1.042668509212133</v>
       </c>
       <c r="E7">
-        <v>1.037374985693942</v>
+        <v>1.015882003604925</v>
       </c>
       <c r="F7">
-        <v>1.051689632650694</v>
+        <v>1.034008070469236</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.036271391360648</v>
+        <v>1.051643073998332</v>
       </c>
       <c r="J7">
-        <v>1.030312758970221</v>
+        <v>1.015992124227064</v>
       </c>
       <c r="K7">
-        <v>1.050820529668225</v>
+        <v>1.05227501809411</v>
       </c>
       <c r="L7">
-        <v>1.039854788097705</v>
+        <v>1.025789514079734</v>
       </c>
       <c r="M7">
-        <v>1.054133877135802</v>
+        <v>1.043709798644163</v>
       </c>
       <c r="N7">
-        <v>1.014124430783243</v>
+        <v>1.009209739635298</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.02452989200729</v>
+        <v>0.991009771323802</v>
       </c>
       <c r="D8">
-        <v>1.047573994787314</v>
+        <v>1.038992643464563</v>
       </c>
       <c r="E8">
-        <v>1.03634116125265</v>
+        <v>1.011445223583218</v>
       </c>
       <c r="F8">
-        <v>1.050627538506251</v>
+        <v>1.029374229264817</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.036156641171446</v>
+        <v>1.050704023216872</v>
       </c>
       <c r="J8">
-        <v>1.029583845081462</v>
+        <v>1.012882014513987</v>
       </c>
       <c r="K8">
-        <v>1.050273557056885</v>
+        <v>1.049669120507695</v>
       </c>
       <c r="L8">
-        <v>1.039071725853402</v>
+        <v>1.022472362119713</v>
       </c>
       <c r="M8">
-        <v>1.053318797141323</v>
+        <v>1.040170482047005</v>
       </c>
       <c r="N8">
-        <v>1.013878882033419</v>
+        <v>1.00814610482355</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.02241575230068</v>
+        <v>0.9809216699519558</v>
       </c>
       <c r="D9">
-        <v>1.046173181001817</v>
+        <v>1.032236965097594</v>
       </c>
       <c r="E9">
-        <v>1.034527029706569</v>
+        <v>1.003345561501097</v>
       </c>
       <c r="F9">
-        <v>1.048760745834855</v>
+        <v>1.020894634757709</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.035943409309401</v>
+        <v>1.048888310930708</v>
       </c>
       <c r="J9">
-        <v>1.028301443243498</v>
+        <v>1.007166600233549</v>
       </c>
       <c r="K9">
-        <v>1.049302925817407</v>
+        <v>1.044827809048166</v>
       </c>
       <c r="L9">
-        <v>1.037694420001558</v>
+        <v>1.016384591509025</v>
       </c>
       <c r="M9">
-        <v>1.051882250713129</v>
+        <v>1.033657569066175</v>
       </c>
       <c r="N9">
-        <v>1.013446213512272</v>
+        <v>1.006188224616513</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.021010913774744</v>
+        <v>0.9738948424978485</v>
       </c>
       <c r="D10">
-        <v>1.04523845765275</v>
+        <v>1.027533233092615</v>
       </c>
       <c r="E10">
-        <v>1.033322821344802</v>
+        <v>0.9977384980259359</v>
       </c>
       <c r="F10">
-        <v>1.047519535467408</v>
+        <v>1.015012141334726</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.035793887617614</v>
+        <v>1.047565196622746</v>
       </c>
       <c r="J10">
-        <v>1.027447946322044</v>
+        <v>1.003183895955885</v>
       </c>
       <c r="K10">
-        <v>1.048651369817931</v>
+        <v>1.041422546102381</v>
       </c>
       <c r="L10">
-        <v>1.036778012512206</v>
+        <v>1.01214870499454</v>
       </c>
       <c r="M10">
-        <v>1.050924474759034</v>
+        <v>1.029115535719616</v>
       </c>
       <c r="N10">
-        <v>1.013157807985004</v>
+        <v>1.004821982697541</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.020403707268813</v>
+        <v>0.9707737047558767</v>
       </c>
       <c r="D11">
-        <v>1.04483353806125</v>
+        <v>1.025445989242789</v>
       </c>
       <c r="E11">
-        <v>1.032802643999915</v>
+        <v>0.9952571052519178</v>
       </c>
       <c r="F11">
-        <v>1.046982890513243</v>
+        <v>1.012406198370355</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.035727405590162</v>
+        <v>1.046964497566892</v>
       </c>
       <c r="J11">
-        <v>1.027078727930038</v>
+        <v>1.001414984679458</v>
       </c>
       <c r="K11">
-        <v>1.04836820019257</v>
+        <v>1.03990347319677</v>
       </c>
       <c r="L11">
-        <v>1.036381641298862</v>
+        <v>1.010269023348706</v>
       </c>
       <c r="M11">
-        <v>1.050509750555352</v>
+        <v>1.027097884014799</v>
       </c>
       <c r="N11">
-        <v>1.013032940381207</v>
+        <v>1.004214775518895</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.020178329932715</v>
+        <v>0.9696019494133026</v>
       </c>
       <c r="D12">
-        <v>1.044683108297633</v>
+        <v>1.024662830307972</v>
       </c>
       <c r="E12">
-        <v>1.032609616957764</v>
+        <v>0.9943269762319745</v>
       </c>
       <c r="F12">
-        <v>1.046783680060887</v>
+        <v>1.011429008822365</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.035702450846722</v>
+        <v>1.046737100289679</v>
       </c>
       <c r="J12">
-        <v>1.026941637710541</v>
+        <v>1.000750949785563</v>
       </c>
       <c r="K12">
-        <v>1.048262863598462</v>
+        <v>1.039332306567829</v>
       </c>
       <c r="L12">
-        <v>1.036234478765264</v>
+        <v>1.009563675505616</v>
       </c>
       <c r="M12">
-        <v>1.050355705149884</v>
+        <v>1.026340474515592</v>
       </c>
       <c r="N12">
-        <v>1.012986561532699</v>
+        <v>1.003986781228713</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.020226666595401</v>
+        <v>0.9698538678735728</v>
       </c>
       <c r="D13">
-        <v>1.044715377070826</v>
+        <v>1.024831181028115</v>
       </c>
       <c r="E13">
-        <v>1.032651013288062</v>
+        <v>0.994526880060468</v>
       </c>
       <c r="F13">
-        <v>1.04682640576258</v>
+        <v>1.011639043401555</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.035707815493172</v>
+        <v>1.046786072668238</v>
       </c>
       <c r="J13">
-        <v>1.026971041569259</v>
+        <v>1.000893708787047</v>
       </c>
       <c r="K13">
-        <v>1.048285465632694</v>
+        <v>1.039455140340702</v>
       </c>
       <c r="L13">
-        <v>1.036266042556763</v>
+        <v>1.009715303809757</v>
       </c>
       <c r="M13">
-        <v>1.050388748310245</v>
+        <v>1.026503307046323</v>
       </c>
       <c r="N13">
-        <v>1.012996509830976</v>
+        <v>1.004035799418867</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.020385074110262</v>
+        <v>0.970677104399722</v>
       </c>
       <c r="D14">
-        <v>1.044821103979301</v>
+        <v>1.025381415154452</v>
       </c>
       <c r="E14">
-        <v>1.032786684438579</v>
+        <v>0.99518039480091</v>
       </c>
       <c r="F14">
-        <v>1.046966421186184</v>
+        <v>1.012325614155228</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.035725348130016</v>
+        <v>1.046945788543955</v>
       </c>
       <c r="J14">
-        <v>1.027067394902985</v>
+        <v>1.001360239684795</v>
       </c>
       <c r="K14">
-        <v>1.048359496184647</v>
+        <v>1.039856402767178</v>
       </c>
       <c r="L14">
-        <v>1.036369475415305</v>
+        <v>1.010210866815412</v>
       </c>
       <c r="M14">
-        <v>1.05049701707065</v>
+        <v>1.027035440648046</v>
       </c>
       <c r="N14">
-        <v>1.013029106636707</v>
+        <v>1.004195980056714</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.020482696268579</v>
+        <v>0.9711826613343202</v>
       </c>
       <c r="D15">
-        <v>1.044886242622504</v>
+        <v>1.025719381998204</v>
       </c>
       <c r="E15">
-        <v>1.03287030113963</v>
+        <v>0.9955819177213043</v>
       </c>
       <c r="F15">
-        <v>1.047052705720862</v>
+        <v>1.012747398285529</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.035736116089493</v>
+        <v>1.04704362582876</v>
       </c>
       <c r="J15">
-        <v>1.027126768552297</v>
+        <v>1.001646749740171</v>
       </c>
       <c r="K15">
-        <v>1.048405088390944</v>
+        <v>1.040102710677256</v>
       </c>
       <c r="L15">
-        <v>1.036433212783617</v>
+        <v>1.010515242377469</v>
       </c>
       <c r="M15">
-        <v>1.050563725295886</v>
+        <v>1.02736224074455</v>
       </c>
       <c r="N15">
-        <v>1.013049190954548</v>
+        <v>1.004294344682239</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.021051235308279</v>
+        <v>0.9741002754131991</v>
       </c>
       <c r="D16">
-        <v>1.045265327263635</v>
+        <v>1.027670669391224</v>
       </c>
       <c r="E16">
-        <v>1.033357370347991</v>
+        <v>0.9979020198483929</v>
       </c>
       <c r="F16">
-        <v>1.047555168013175</v>
+        <v>1.015183817510267</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.035798263256543</v>
+        <v>1.047604469564796</v>
       </c>
       <c r="J16">
-        <v>1.027472457631398</v>
+        <v>1.003300331355363</v>
       </c>
       <c r="K16">
-        <v>1.048670141053577</v>
+        <v>1.04152240450192</v>
       </c>
       <c r="L16">
-        <v>1.036804327737682</v>
+        <v>1.012272468106719</v>
       </c>
       <c r="M16">
-        <v>1.050951998770322</v>
+        <v>1.029248341434357</v>
       </c>
       <c r="N16">
-        <v>1.013166095367916</v>
+        <v>1.00486194327087</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.02140815963745</v>
+        <v>0.9759089715493557</v>
       </c>
       <c r="D17">
-        <v>1.045503070869407</v>
+        <v>1.028880950287894</v>
       </c>
       <c r="E17">
-        <v>1.033663232654636</v>
+        <v>0.9993427665156269</v>
       </c>
       <c r="F17">
-        <v>1.047870566951803</v>
+        <v>1.016696109283713</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.03583678173107</v>
+        <v>1.047948767407009</v>
       </c>
       <c r="J17">
-        <v>1.027689394140847</v>
+        <v>1.00432548242859</v>
       </c>
       <c r="K17">
-        <v>1.048836123926489</v>
+        <v>1.042400857312689</v>
       </c>
       <c r="L17">
-        <v>1.03703723692981</v>
+        <v>1.013362329237208</v>
       </c>
       <c r="M17">
-        <v>1.051195553468996</v>
+        <v>1.030417594026488</v>
       </c>
       <c r="N17">
-        <v>1.01323943045645</v>
+        <v>1.005213730463261</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.021616453401589</v>
+        <v>0.9769564267627254</v>
       </c>
       <c r="D18">
-        <v>1.045641725351761</v>
+        <v>1.02958203397167</v>
       </c>
       <c r="E18">
-        <v>1.033841757724369</v>
+        <v>1.000177995638836</v>
       </c>
       <c r="F18">
-        <v>1.048054611572008</v>
+        <v>1.017572559485516</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.035859081147314</v>
+        <v>1.048146916831172</v>
       </c>
       <c r="J18">
-        <v>1.027815963365993</v>
+        <v>1.00491917660169</v>
       </c>
       <c r="K18">
-        <v>1.04893283831721</v>
+        <v>1.042908958922528</v>
       </c>
       <c r="L18">
-        <v>1.037173131211898</v>
+        <v>1.013993657353388</v>
       </c>
       <c r="M18">
-        <v>1.051337614599542</v>
+        <v>1.031094708256813</v>
       </c>
       <c r="N18">
-        <v>1.01328220688299</v>
+        <v>1.005417422714092</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.021687494106787</v>
+        <v>0.9773123239104995</v>
       </c>
       <c r="D19">
-        <v>1.04568899993953</v>
+        <v>1.029820270445594</v>
       </c>
       <c r="E19">
-        <v>1.033902650589191</v>
+        <v>1.000461927881525</v>
       </c>
       <c r="F19">
-        <v>1.048117379156531</v>
+        <v>1.017870460637471</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.035866656193563</v>
+        <v>1.048214030009479</v>
       </c>
       <c r="J19">
-        <v>1.027859125904455</v>
+        <v>1.005120897821674</v>
       </c>
       <c r="K19">
-        <v>1.048965798308056</v>
+        <v>1.043081488058382</v>
       </c>
       <c r="L19">
-        <v>1.037219474781327</v>
+        <v>1.014208191964369</v>
       </c>
       <c r="M19">
-        <v>1.051386053685485</v>
+        <v>1.03132476632095</v>
       </c>
       <c r="N19">
-        <v>1.013296792747466</v>
+        <v>1.005486625271693</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.021369854078048</v>
+        <v>0.9757156985511902</v>
       </c>
       <c r="D20">
-        <v>1.045477565008388</v>
+        <v>1.028751602490513</v>
       </c>
       <c r="E20">
-        <v>1.03363040402018</v>
+        <v>0.999188721828012</v>
       </c>
       <c r="F20">
-        <v>1.047836719572918</v>
+        <v>1.016534441252673</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.035832666409686</v>
+        <v>1.047912104740881</v>
       </c>
       <c r="J20">
-        <v>1.027666115399106</v>
+        <v>1.004215936178895</v>
       </c>
       <c r="K20">
-        <v>1.048818325929452</v>
+        <v>1.042307052404328</v>
       </c>
       <c r="L20">
-        <v>1.037012243593368</v>
+        <v>1.013245851600514</v>
       </c>
       <c r="M20">
-        <v>1.051169422363225</v>
+        <v>1.030292652396728</v>
       </c>
       <c r="N20">
-        <v>1.01323156215671</v>
+        <v>1.005176142837223</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.020338422447389</v>
+        <v>0.9704350300901085</v>
       </c>
       <c r="D21">
-        <v>1.044789970701518</v>
+        <v>1.025219604298222</v>
       </c>
       <c r="E21">
-        <v>1.032746727407613</v>
+        <v>0.9949881869538532</v>
       </c>
       <c r="F21">
-        <v>1.046925186711156</v>
+        <v>1.012123694158479</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.035720192386372</v>
+        <v>1.046898874906187</v>
       </c>
       <c r="J21">
-        <v>1.027039019749868</v>
+        <v>1.001223053350568</v>
       </c>
       <c r="K21">
-        <v>1.048337700291527</v>
+        <v>1.039738433704271</v>
       </c>
       <c r="L21">
-        <v>1.036339015145209</v>
+        <v>1.010065135852645</v>
       </c>
       <c r="M21">
-        <v>1.050465134560106</v>
+        <v>1.026878963018633</v>
       </c>
       <c r="N21">
-        <v>1.013019507616147</v>
+        <v>1.004148879369517</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.019690882629772</v>
+        <v>0.9670426265460295</v>
       </c>
       <c r="D22">
-        <v>1.044357511624496</v>
+        <v>1.022953251361426</v>
       </c>
       <c r="E22">
-        <v>1.032192224912438</v>
+        <v>0.9922981632032531</v>
       </c>
       <c r="F22">
-        <v>1.04635278467868</v>
+        <v>1.009296889129452</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.035647969535412</v>
+        <v>1.046237054535846</v>
       </c>
       <c r="J22">
-        <v>1.026645052415599</v>
+        <v>0.9993007394472536</v>
       </c>
       <c r="K22">
-        <v>1.048034617163797</v>
+        <v>1.038083313241973</v>
       </c>
       <c r="L22">
-        <v>1.035916120245906</v>
+        <v>1.008023754731725</v>
       </c>
       <c r="M22">
-        <v>1.050022331163784</v>
+        <v>1.024686395555163</v>
       </c>
       <c r="N22">
-        <v>1.012886195425268</v>
+        <v>1.003488763536389</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.020034064113473</v>
+        <v>0.9688480744954696</v>
       </c>
       <c r="D23">
-        <v>1.044586779027196</v>
+        <v>1.024159111305873</v>
       </c>
       <c r="E23">
-        <v>1.0324860723151</v>
+        <v>0.9937289756478047</v>
       </c>
       <c r="F23">
-        <v>1.046656157370258</v>
+        <v>1.010800649939773</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.035686398723901</v>
+        <v>1.046590279205258</v>
       </c>
       <c r="J23">
-        <v>1.026853871944136</v>
+        <v>1.000323750690025</v>
       </c>
       <c r="K23">
-        <v>1.048195371506946</v>
+        <v>1.038964604133831</v>
       </c>
       <c r="L23">
-        <v>1.036140267351073</v>
+        <v>1.009109976287777</v>
       </c>
       <c r="M23">
-        <v>1.050257068057711</v>
+        <v>1.025853210274066</v>
       </c>
       <c r="N23">
-        <v>1.012956865175277</v>
+        <v>1.003840089332638</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.021387162384589</v>
+        <v>0.9758030535131773</v>
       </c>
       <c r="D24">
-        <v>1.045489090062936</v>
+        <v>1.028810064169145</v>
       </c>
       <c r="E24">
-        <v>1.033645237494079</v>
+        <v>0.9992583438292746</v>
       </c>
       <c r="F24">
-        <v>1.047852013506488</v>
+        <v>1.01660750949053</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.03583452646471</v>
+        <v>1.047928679277081</v>
       </c>
       <c r="J24">
-        <v>1.027676633956076</v>
+        <v>1.004265448552931</v>
       </c>
       <c r="K24">
-        <v>1.048826368389273</v>
+        <v>1.042349452031161</v>
       </c>
       <c r="L24">
-        <v>1.037023536875769</v>
+        <v>1.013298496311307</v>
       </c>
       <c r="M24">
-        <v>1.051181229885957</v>
+        <v>1.030349123233513</v>
       </c>
       <c r="N24">
-        <v>1.01323511749868</v>
+        <v>1.005193131693164</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.022961505035907</v>
+        <v>0.9835805886421035</v>
       </c>
       <c r="D25">
-        <v>1.046535483639906</v>
+        <v>1.034017730176113</v>
       </c>
       <c r="E25">
-        <v>1.034995114994272</v>
+        <v>1.005474670749858</v>
       </c>
       <c r="F25">
-        <v>1.049242780612423</v>
+        <v>1.023125856406885</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.035999836802701</v>
+        <v>1.049377230504727</v>
       </c>
       <c r="J25">
-        <v>1.028632726424805</v>
+        <v>1.008673454341646</v>
       </c>
       <c r="K25">
-        <v>1.049554652204297</v>
+        <v>1.046109957287684</v>
       </c>
       <c r="L25">
-        <v>1.038050175952985</v>
+        <v>1.017988589848184</v>
       </c>
       <c r="M25">
-        <v>1.052253653819785</v>
+        <v>1.035375475217233</v>
       </c>
       <c r="N25">
-        <v>1.013558063586324</v>
+        <v>1.006704766569702</v>
       </c>
     </row>
   </sheetData>
